--- a/report/reliability/comb/Centro de Tecnologia - CTEC-Mestrado-Presencial.xlsx
+++ b/report/reliability/comb/Centro de Tecnologia - CTEC-Mestrado-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1016,11 +1016,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1847,6 +1842,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2255,6 +2255,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2635,11 +2640,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3390,6 +3390,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3417,14 +3418,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3433,6 +3433,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3448,14 +3449,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3463,6 +3463,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3478,20 +3479,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3507,20 +3508,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3548,14 +3549,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3564,6 +3564,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3579,14 +3580,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3594,6 +3594,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3609,20 +3610,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3638,14 +3639,13 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3780,7 +3780,6 @@
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3808,13 +3807,14 @@
     <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3823,7 +3823,6 @@
     <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3839,13 +3838,14 @@
     <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3853,7 +3853,6 @@
     <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3869,20 +3868,20 @@
     <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3898,13 +3897,14 @@
     <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4116,31 +4116,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7510703832930742</v>
+        <v>0.7162475220285554</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7753290711140421</v>
+        <v>0.7480024093570958</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9361080721558807</v>
+        <v>0.9208791673579768</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.22334893399190192</v>
+        <v>0.1983053194667844</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.450954135270416</v>
+        <v>2.9682919088582116</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.06487237182573712</v>
+        <v>0.07051123667959769</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.8978494623655915</v>
+        <v>2.303763440860215</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7983517967649659</v>
+        <v>0.7266578704541437</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.21469191577854985</v>
+        <v>0.15167966516683407</v>
       </c>
     </row>
     <row r="7">
@@ -4190,28 +4190,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7230356951441741</v>
+        <v>0.6955892575039495</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7374512921871831</v>
+        <v>0.7241082908785644</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9160712919161276</v>
+        <v>0.91105227528942</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.20340750809348557</v>
+        <v>0.19263747332203965</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.8088170699089705</v>
+        <v>2.624610551670631</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.07216656095744757</v>
+        <v>0.07581855243814563</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.07622927488453649</v>
+        <v>0.09611422172287531</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.21132232749148377</v>
+        <v>0.11027205661720578</v>
       </c>
     </row>
     <row r="12">
@@ -4219,28 +4219,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7256911827497866</v>
+        <v>0.6993185315453947</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.742991657288763</v>
+        <v>0.7297128043953454</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9215148244826269</v>
+        <v>0.9107050754659328</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.20811604895455493</v>
+        <v>0.19706671282645147</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.8909242768183416</v>
+        <v>2.6997683066817797</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.07151206627934102</v>
+        <v>0.07501242972585005</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.07801770162923945</v>
+        <v>0.09649367415176387</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.21132232749148377</v>
+        <v>0.11230011548854606</v>
       </c>
     </row>
     <row r="13">
@@ -4248,28 +4248,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7116230076230077</v>
+        <v>0.6980229591836736</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7224273956069726</v>
+        <v>0.720566167150586</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9066527974347109</v>
+        <v>0.9050910464460109</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.19133469621513494</v>
+        <v>0.1899056185209918</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.602661012554593</v>
+        <v>2.5786647228895023</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.07473846402286492</v>
+        <v>0.07651365193808306</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.0745009278953088</v>
+        <v>0.07838179637722749</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.17235623538474001</v>
+        <v>0.14473514054049658</v>
       </c>
     </row>
     <row r="14">
@@ -4277,28 +4277,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7221879899870712</v>
+        <v>0.6633146156279659</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7406030546394499</v>
+        <v>0.7117781827649358</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9118778937090427</v>
+        <v>0.8978122173215572</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.20606826635559475</v>
+        <v>0.18334316907644613</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.855095512439611</v>
+        <v>2.4695499792246207</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.0720694254125932</v>
+        <v>0.08478132558803952</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.0742259128317137</v>
+        <v>0.07909611397144171</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.21418856894754987</v>
+        <v>0.14473514054049658</v>
       </c>
     </row>
     <row r="15">
@@ -4306,28 +4306,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7185280446234894</v>
+        <v>0.6681703370431763</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7588099438120697</v>
+        <v>0.713674790844958</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8979650339993221</v>
+        <v>0.8969598587823915</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.22240095514217179</v>
+        <v>0.18473420163439086</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.1461079109365127</v>
+        <v>2.492532155834418</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.07446890544703146</v>
+        <v>0.08369932980380215</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.08444913815964919</v>
+        <v>0.07698894643275943</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.21418856894754987</v>
+        <v>0.11230011548854606</v>
       </c>
     </row>
     <row r="16">
@@ -4335,28 +4335,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.721570268427252</v>
+        <v>0.702455792728692</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7603813395642623</v>
+        <v>0.7226758691395543</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8971592940633354</v>
+        <v>0.9010266201191004</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.22389268557524997</v>
+        <v>0.19152654443053305</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.1732976813305633</v>
+        <v>2.6058888813509604</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.0738523906722559</v>
+        <v>0.07511628938532575</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.08200854169628397</v>
+        <v>0.08327517690974534</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.21132232749148377</v>
+        <v>0.16463247524509453</v>
       </c>
     </row>
     <row r="17">
@@ -4364,28 +4364,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7190630630630631</v>
+        <v>0.6636488707150228</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7558597690081569</v>
+        <v>0.7066273880688055</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9108747079578018</v>
+        <v>0.8950213882056409</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.21963714234447426</v>
+        <v>0.1796330925530735</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.096006610370623</v>
+        <v>2.4086344782400224</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.07378958345274145</v>
+        <v>0.08392023612882174</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.08811882259983715</v>
+        <v>0.08465704961015628</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.18521454148526542</v>
+        <v>0.10425059989858186</v>
       </c>
     </row>
     <row r="18">
@@ -4393,28 +4393,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.72688687622092</v>
+        <v>0.6724756805670764</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7619834032655404</v>
+        <v>0.7143676424079519</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9114990306191727</v>
+        <v>0.9055767805599406</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2254278075771948</v>
+        <v>0.1852457731681493</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.201387691950061</v>
+        <v>2.501003907366269</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.07193687830404899</v>
+        <v>0.08206649095217514</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.08716322678583681</v>
+        <v>0.08612101862571599</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.21519526260954983</v>
+        <v>0.11027205661720578</v>
       </c>
     </row>
     <row r="19">
@@ -4422,28 +4422,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.784687111964951</v>
+        <v>0.7509091429716805</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8065354918947962</v>
+        <v>0.7791036660165793</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9496356265653039</v>
+        <v>0.9342820249467882</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2748323799366096</v>
+        <v>0.24278983070490043</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.168906740538741</v>
+        <v>3.52701039427415</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.05682852358298362</v>
+        <v>0.06127055062719447</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.07483421727836648</v>
+        <v>0.08543197761502315</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.23648206201835414</v>
+        <v>0.19622098205031857</v>
       </c>
     </row>
     <row r="20">
@@ -4451,28 +4451,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7576418242491658</v>
+        <v>0.7254643409929753</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7820869941598908</v>
+        <v>0.7616493850082924</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9404170577049746</v>
+        <v>0.9230827161960284</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.24600660551560835</v>
+        <v>0.22510654665928673</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.5889872251761616</v>
+        <v>3.1954999781930082</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.06249805597321685</v>
+        <v>0.06667659026360385</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.09025478553253567</v>
+        <v>0.09316321310544161</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.23160669858992128</v>
+        <v>0.16582190338226677</v>
       </c>
     </row>
     <row r="21">
@@ -4480,28 +4480,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7466204418351595</v>
+        <v>0.7128517852242584</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7681886320076914</v>
+        <v>0.7453905051429224</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9292986669714749</v>
+        <v>0.912356490945118</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2315136568875778</v>
+        <v>0.21020037984130846</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.313852287145726</v>
+        <v>2.927583299913224</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.06560039521133222</v>
+        <v>0.07021248205126718</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.09206278163485744</v>
+        <v>0.09705403803699664</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.22367527366665818</v>
+        <v>0.16582190338226677</v>
       </c>
     </row>
     <row r="22">
@@ -4509,28 +4509,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7385217436375888</v>
+        <v>0.6955345751467212</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7641728501806946</v>
+        <v>0.7302203940896944</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9227874819926141</v>
+        <v>0.9055295424657587</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.22754945530516632</v>
+        <v>0.19747449086384106</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.24039386799279</v>
+        <v>2.70672941205375</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.06763022765588637</v>
+        <v>0.07422344009272558</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.09247698961246492</v>
+        <v>0.09905523368656052</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.21519526260954983</v>
+        <v>0.15862418979317153</v>
       </c>
     </row>
     <row r="23">
@@ -4580,16 +4580,16 @@
         <v>31.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.6308529011788284</v>
+        <v>0.49764867452939276</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.7070112380939525</v>
+        <v>0.5653440843762775</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.7123178712312324</v>
+        <v>0.5237182067179638</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.5580944667545855</v>
+        <v>0.3994193915989624</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.903225806451613</v>
@@ -4606,16 +4606,16 @@
         <v>31.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5966729774274637</v>
+        <v>0.46264182547386384</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.666802644828641</v>
+        <v>0.525916976196473</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6587209938655504</v>
+        <v>0.48478174536666474</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5162848568878186</v>
+        <v>0.3567960316112798</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.354838709677419</v>
@@ -4632,22 +4632,22 @@
         <v>31.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.7337101871560634</v>
+        <v>0.6437224541992063</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.8101070371341198</v>
+        <v>0.589661833431199</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.8266770512095751</v>
+        <v>0.6089823161891262</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.673668188969042</v>
+        <v>0.6092446635778315</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>4.0</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0954451150103321</v>
+        <v>0.48637345711392005</v>
       </c>
     </row>
     <row r="30">
@@ -4658,22 +4658,22 @@
         <v>31.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6070532925516163</v>
+        <v>0.7056787736638647</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6842896880649337</v>
+        <v>0.648077821981125</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.692131029329022</v>
+        <v>0.6735475596473189</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5085689868051959</v>
+        <v>0.5459786688218152</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.161290322580645</v>
+        <v>1.5161290322580645</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3190090773897498</v>
+        <v>2.127141552129453</v>
       </c>
     </row>
     <row r="31">
@@ -4684,22 +4684,22 @@
         <v>31.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6601944100301212</v>
+        <v>0.6931218718874995</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5448166624025323</v>
+        <v>0.63569547257575</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5614688604289885</v>
+        <v>0.6608562687012671</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5038891353727699</v>
+        <v>0.5243738198901948</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.5161290322580645</v>
+        <v>1.5483870967741935</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>2.127141552129453</v>
+        <v>2.1731499361896986</v>
       </c>
     </row>
     <row r="32">
@@ -4710,22 +4710,22 @@
         <v>31.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6513820235293636</v>
+        <v>0.5587038709557486</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5320780276502993</v>
+        <v>0.575233076277003</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5483663042386779</v>
+        <v>0.5802866829358687</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4882924514634257</v>
+        <v>0.519478237208802</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.5483870967741935</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.1731499361896986</v>
+        <v>0.47519096331149147</v>
       </c>
     </row>
     <row r="33">
@@ -4736,16 +4736,16 @@
         <v>31.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6421936291805022</v>
+        <v>0.6936481488299882</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.5684182468260444</v>
+        <v>0.6811032630972949</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.5626857201442007</v>
+        <v>0.6960257570913227</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.4969259070338505</v>
+        <v>0.5467393157336639</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.4838709677419355</v>
@@ -4762,16 +4762,16 @@
         <v>31.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6060775831013241</v>
+        <v>0.6623364945441317</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5189688505166403</v>
+        <v>0.6311416916878319</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5124172370354593</v>
+        <v>0.6318023682188753</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.44812966974829604</v>
+        <v>0.5017032041706263</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>2.2903225806451615</v>
@@ -4788,16 +4788,16 @@
         <v>31.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.0784273429600526</v>
+        <v>0.12201970337907615</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.09707841480420322</v>
+        <v>0.11891023991230555</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>-0.004080340812698146</v>
+        <v>0.015759305474550914</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>-0.0791660928264918</v>
+        <v>-0.05144410700914702</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>2.2903225806451615</v>
@@ -4814,16 +4814,16 @@
         <v>31.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.26699576185026064</v>
+        <v>0.24703750595155968</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.34323616801279083</v>
+        <v>0.2763189220000914</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.277461079826677</v>
+        <v>0.21444169330485913</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.1423165299192681</v>
+        <v>0.10867130334318748</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>2.774193548387097</v>
@@ -4840,16 +4840,16 @@
         <v>31.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.3716170941284224</v>
+        <v>0.343039205242765</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.4669987292380086</v>
+        <v>0.4090069491644037</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.41837490279862594</v>
+        <v>0.3561098443053042</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.2629734924642852</v>
+        <v>0.22091916373508208</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.903225806451613</v>
@@ -4866,16 +4866,16 @@
         <v>31.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.4593826780451394</v>
+        <v>0.49537800263670134</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5008510358765215</v>
+        <v>0.5222871185702391</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.4649671778974006</v>
+        <v>0.48291765853488194</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.3568800385520804</v>
+        <v>0.3860108565913744</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.5483870967741935</v>
@@ -4980,22 +4980,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.03225806451612903</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.16129032258064516</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.41935483870967744</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.3548387096774194</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5006,22 +5006,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.03225806451612903</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.25806451612903225</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.03225806451612903</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.6451612903225806</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5044,10 +5044,10 @@
         <v>0.06451612903225806</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.12903225806451613</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.16129032258064516</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5058,22 +5058,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.6451612903225806</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.0967741935483871</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.1935483870967742</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5311,31 +5311,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.9405458089668617</v>
+        <v>0.8738167360848164</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.9429217460726314</v>
+        <v>0.9935990960853011</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.9530065126634942</v>
+        <v>0.9912286616635844</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.8050663938952064</v>
+        <v>0.9810400103992197</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>16.519807127815895</v>
+        <v>155.22793488644842</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.01727770685116841</v>
+        <v>0.003739004967125688</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>4.104838709677419</v>
+        <v>1.139784946236559</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0503455652553653</v>
+        <v>1.5887898808664436</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.8077761222456288</v>
+        <v>0.9769641953827168</v>
       </c>
     </row>
     <row r="7">
@@ -5382,118 +5382,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.9287564766839378</v>
+        <v>0.9946223988777181</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.9310707548889395</v>
+        <v>0.9947368620765669</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.9170802128934444</v>
+        <v>0.989528835336974</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.8182658589709039</v>
+        <v>0.9895288353369742</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>13.507630228486851</v>
+        <v>189.00072096679972</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.020822797928399948</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.005717425977871991</v>
-      </c>
+        <v>0.0019108026747719578</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.8535757374853612</v>
+        <v>0.9895288353369741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.9330375151270673</v>
+        <v>0.5878750765462339</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.9401503387720422</v>
+        <v>0.9881753110139748</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.9286681981416924</v>
+        <v>0.976627000477968</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.8396453582823863</v>
+        <v>0.976627000477968</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>15.708532337236816</v>
+        <v>83.56882047230393</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.021126179641002524</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.005144549372807192</v>
-      </c>
+        <v>0.014917962154586779</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.8535757374853612</v>
+        <v>0.9766270004779679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.9108952702702704</v>
+        <v>0.5960684844641726</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.9143648199618046</v>
+        <v>0.9883478898246694</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.8894082274308601</v>
+        <v>0.9769641953827168</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.7806607689638533</v>
+        <v>0.9769641953827168</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>10.677443774322366</v>
+        <v>84.82136496762315</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.02617079204743463</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.006623874798661987</v>
-      </c>
+        <v>0.014862491880198577</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.7619765070058964</v>
+        <v>0.9769641953827168</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.9144832605531296</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.9148367392768582</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8962412854550506</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.7816935893636824</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>10.742152560960653</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.02781522331261269</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.011218916148016761</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.7314564886384165</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5502,283 +5472,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>31.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9833210277978086</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9908122422996527</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9814246538884551</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9793606259917644</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.48637345711392005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>31.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.9061431283327638</v>
+        <v>0.9971332244581848</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.913299173996779</v>
+        <v>0.995140294179123</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8884613947607352</v>
+        <v>0.9933280263362521</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.8410491356964624</v>
+        <v>0.99069732805786</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.903225806451613</v>
+        <v>1.5161290322580645</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0441851275732486</v>
+        <v>2.127141552129453</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>31.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8977371700570949</v>
+        <v>0.9971998912796144</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8959459261186788</v>
+        <v>0.9950271787147573</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8554320264233738</v>
+        <v>0.9931246494958856</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.8238441942868492</v>
+        <v>0.9905901809097221</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.354838709677419</v>
+        <v>1.5483870967741935</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.0816156771784882</v>
+        <v>2.1731499361896986</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>31.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.9415410883046981</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.9438223606656144</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.9357101698001742</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.896265347329028</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>4.0</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0954451150103321</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>31.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.9497947524048858</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.9429840441011957</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.9285577480854827</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.8972597601939856</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.161290322580645</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3190090773897498</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.0</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.03225806451612903</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.2903225806451613</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.2903225806451613</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.25806451612903225</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.0</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.7096774193548387</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.41935483870967744</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.25806451612903225</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.6451612903225806</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5808,7 +5709,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
+      <c r="A1" t="s" s="231">
         <v>45</v>
       </c>
     </row>
@@ -5823,66 +5724,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.948260742472961</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.9483606061971879</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.9017925838322205</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.9017925838322205</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>18.365060787091274</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.018565390064176308</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.3870967741935485</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.9179402033577362</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.9017925838322205</v>
+      <c r="A6" t="n" s="260">
+        <v>0.8408686365254538</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.9519378591807708</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.9398830091571866</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.8684579614985252</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>19.806397362972024</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.01564469781495865</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>1.8172043010752688</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>1.4190208143944145</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.8948287390897781</v>
       </c>
     </row>
     <row r="7">
@@ -5896,86 +5797,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n" s="287">
+        <v>0.948260742472961</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.9483606061971879</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.9017925838322205</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.9017925838322205</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>18.365060787091274</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.018565390064176308</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
+        <v>0.9017925838322205</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
-        <v>0.9017925838322205</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.9017925838322205</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.8132298642547925</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.9017925838322205</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.9017925838322205</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.9017925838322205</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="B12" t="n" s="287">
+        <v>0.5358490566037737</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.894265560425777</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.8087525615735773</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.8087525615735773</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>8.457656408137703</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.04768293353637575</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.8087525615735773</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.8132298642547925</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.9017925838322205</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.8132298642547925</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.9017925838322205</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="287">
+        <v>0.583775587566338</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.944495637658133</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.8948287390897781</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.8948287390897782</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>17.01660189951775</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.033746011895382934</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.8948287390897781</v>
       </c>
     </row>
     <row r="14">
@@ -5984,174 +5915,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="298">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="313">
+        <v>31.0</v>
+      </c>
+      <c r="C18" t="n" s="314">
+        <v>0.8983086103718195</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.9435134130267765</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.901490338292277</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.8730629032196837</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.47519096331149147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B19" t="n" s="313">
         <v>31.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9746327080774687</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9751391141350603</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.9260190192666167</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.9017925838322203</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C19" t="n" s="314">
+        <v>0.9780897261332591</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.9759831260432856</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.9679836275228058</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.9285350016711481</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.4838709677419355</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.9471512138152922</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
+      <c r="B20" t="n" s="313">
         <v>31.0</v>
       </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9756404780435953</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9751391141350603</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.9260190192666167</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.9017925838322204</v>
-      </c>
-      <c r="G18" t="n" s="319">
+      <c r="C20" t="n" s="314">
+        <v>0.969389610234358</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.9459437009264295</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.90850053380691</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.8985686022368125</v>
+      </c>
+      <c r="G20" t="n" s="318">
         <v>2.2903225806451615</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="319">
         <v>1.9865136695074075</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="323">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="337">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="337">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="337">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="337">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="337">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="337">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.3225806451612903</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.03225806451612903</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.03225806451612903</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.22580645161290322</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.22580645161290322</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.16129032258064516</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="338">
         <v>0.3225806451612903</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.0967741935483871</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.12903225806451613</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.03225806451612903</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.25806451612903225</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.16129032258064516</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6181,7 +6169,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
+      <c r="A1" t="s" s="346">
         <v>46</v>
       </c>
     </row>
@@ -6196,66 +6184,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.809407153356198</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8094438762190637</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.6798872056938008</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.6798872056938008</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>4.247797762456596</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.06845326990263585</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>2.725806451612903</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.0475265285218267</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.6798872056938009</v>
+      <c r="A6" t="n" s="375">
+        <v>0.830272676683361</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.8305737938450071</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.7102404490967297</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.7102404490967298</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>4.902274640353979</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.06089166434670582</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>4.129032258064516</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.9829186295202998</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.7102404490967298</v>
       </c>
     </row>
     <row r="7">
@@ -6269,81 +6257,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.6798872056938008</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.6798872056938008</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.46224661246612464</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.6798872056938008</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.6798872056938008</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.6798872056938008</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.7102404490967299</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.7102404490967299</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.5044414955331242</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.7102404490967299</v>
+      </c>
+      <c r="F11" s="406"/>
+      <c r="G11" s="407"/>
+      <c r="H11" t="n" s="408">
+        <v>0.7102404490967299</v>
+      </c>
+      <c r="I11" t="n" s="409">
+        <v>0.7102404490967299</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.46224661246612464</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.6798872056938008</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.46224661246612464</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.6798872056938008</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.5044414955331242</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.7102404490967299</v>
+      </c>
+      <c r="D12" s="404"/>
+      <c r="E12" s="405"/>
+      <c r="F12" s="406"/>
+      <c r="G12" s="407"/>
+      <c r="H12" t="n" s="408">
+        <v>0.5044414955331242</v>
+      </c>
+      <c r="I12" t="n" s="409">
+        <v>0.7102404490967299</v>
       </c>
     </row>
     <row r="13">
@@ -6357,84 +6345,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
+      <c r="A15" t="s" s="413">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="B16" t="s" s="427">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+      <c r="C16" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="D16" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="E16" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="F16" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="G16" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H16" t="s" s="427">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+      <c r="A17" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="428">
         <v>31.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9154029713916509</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9164843713053162</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.7556896909975435</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.6798872056938011</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.903225806451613</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.1359236684941296</v>
+      <c r="C17" t="n" s="429">
+        <v>0.9219442370153647</v>
+      </c>
+      <c r="D17" t="n" s="430">
+        <v>0.9247271081504883</v>
+      </c>
+      <c r="E17" t="n" s="431">
+        <v>0.7793208404212779</v>
+      </c>
+      <c r="F17" t="n" s="432">
+        <v>0.7102404490967299</v>
+      </c>
+      <c r="G17" t="n" s="433">
+        <v>3.903225806451613</v>
+      </c>
+      <c r="H17" t="n" s="434">
+        <v>1.0441851275732486</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="A18" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>31.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9175591162095138</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.916484371305316</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.7556896909975435</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.6798872056938011</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>2.5483870967741935</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.1500350625790894</v>
+      <c r="C18" t="n" s="429">
+        <v>0.9274614074697338</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.9247271081504883</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.7793208404212779</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.7102404490967299</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>4.354838709677419</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>1.0816156771784882</v>
       </c>
     </row>
     <row r="19">
@@ -6448,65 +6436,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="439">
+      <c r="A21" t="s" s="438">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="453">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="453">
+      <c r="B22" t="s" s="452">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="D22" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="E22" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="F22" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="452">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="C23" t="n" s="455">
+      <c r="A23" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n" s="453">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="C23" t="n" s="454">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="D23" t="n" s="455">
         <v>0.2903225806451613</v>
       </c>
-      <c r="D23" t="n" s="456">
+      <c r="E23" t="n" s="456">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="F23" t="n" s="457">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="G23" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="453">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="C24" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="n" s="455">
         <v>0.25806451612903225</v>
       </c>
-      <c r="E23" t="n" s="457">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="F24" t="n" s="458">
+      <c r="E24" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n" s="457">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="G24" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6586,31 +6583,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="489">
-        <v>0.9946223988777181</v>
+        <v>0.6441199077632589</v>
       </c>
       <c r="B6" t="n" s="490">
-        <v>0.9947368620765669</v>
+        <v>0.6532320993173462</v>
       </c>
       <c r="C6" t="n" s="491">
-        <v>0.989528835336974</v>
+        <v>0.4850368790243913</v>
       </c>
       <c r="D6" t="n" s="492">
-        <v>0.9895288353369742</v>
+        <v>0.4850368790243915</v>
       </c>
       <c r="E6" t="n" s="493">
-        <v>189.00072096679972</v>
+        <v>1.8837732616870853</v>
       </c>
       <c r="F6" t="n" s="494">
-        <v>0.0019108026747719578</v>
+        <v>0.12442843682710794</v>
       </c>
       <c r="G6" t="n" s="495">
-        <v>1.532258064516129</v>
+        <v>2.532258064516129</v>
       </c>
       <c r="H6" t="n" s="496">
-        <v>2.1445103709664814</v>
+        <v>1.18276148533117</v>
       </c>
       <c r="I6" t="n" s="497">
-        <v>0.9895288353369741</v>
+        <v>0.48503687902439147</v>
       </c>
     </row>
     <row r="7">
@@ -6657,48 +6654,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="511">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n" s="516">
-        <v>0.9895288353369741</v>
+        <v>0.48503687902439147</v>
       </c>
       <c r="C11" t="n" s="517">
-        <v>0.9895288353369741</v>
+        <v>0.48503687902439147</v>
       </c>
       <c r="D11" t="n" s="518">
-        <v>0.9791673159633482</v>
+        <v>0.2352607740137218</v>
       </c>
       <c r="E11" t="n" s="519">
-        <v>0.9895288353369741</v>
+        <v>0.48503687902439147</v>
       </c>
       <c r="F11" s="520"/>
       <c r="G11" s="521"/>
       <c r="H11" t="n" s="522">
-        <v>0.9895288353369741</v>
+        <v>0.48503687902439147</v>
       </c>
       <c r="I11" t="n" s="523">
-        <v>0.9895288353369741</v>
+        <v>0.48503687902439147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="511">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n" s="516">
-        <v>0.9791673159633482</v>
+        <v>0.2352607740137218</v>
       </c>
       <c r="C12" t="n" s="517">
-        <v>0.9895288353369741</v>
+        <v>0.48503687902439147</v>
       </c>
       <c r="D12" s="518"/>
       <c r="E12" s="519"/>
       <c r="F12" s="520"/>
       <c r="G12" s="521"/>
       <c r="H12" t="n" s="522">
-        <v>0.9791673159633482</v>
+        <v>0.2352607740137218</v>
       </c>
       <c r="I12" t="n" s="523">
-        <v>0.9895288353369741</v>
+        <v>0.48503687902439147</v>
       </c>
     </row>
     <row r="13">
@@ -6742,54 +6739,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="537">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n" s="542">
         <v>31.0</v>
       </c>
       <c r="C17" t="n" s="543">
-        <v>0.9973223108200867</v>
+        <v>0.8905567407933679</v>
       </c>
       <c r="D17" t="n" s="544">
-        <v>0.9973787734198514</v>
+        <v>0.8616950966044751</v>
       </c>
       <c r="E17" t="n" s="545">
-        <v>0.9921431729595085</v>
+        <v>0.6001240092839618</v>
       </c>
       <c r="F17" t="n" s="546">
-        <v>0.989528835336974</v>
+        <v>0.4850368790243913</v>
       </c>
       <c r="G17" t="n" s="547">
-        <v>1.5161290322580645</v>
+        <v>2.2903225806451615</v>
       </c>
       <c r="H17" t="n" s="548">
-        <v>2.127141552129453</v>
+        <v>1.5098244575026325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="537">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n" s="542">
         <v>31.0</v>
       </c>
       <c r="C18" t="n" s="543">
-        <v>0.9974346351463984</v>
+        <v>0.8297357080985667</v>
       </c>
       <c r="D18" t="n" s="544">
-        <v>0.9973787734198514</v>
+        <v>0.8616950966044751</v>
       </c>
       <c r="E18" t="n" s="545">
-        <v>0.9921431729595085</v>
+        <v>0.6001240092839619</v>
       </c>
       <c r="F18" t="n" s="546">
-        <v>0.9895288353369742</v>
+        <v>0.4850368790243914</v>
       </c>
       <c r="G18" t="n" s="547">
-        <v>1.5483870967741935</v>
+        <v>2.774193548387097</v>
       </c>
       <c r="H18" t="n" s="548">
-        <v>2.1731499361896986</v>
+        <v>1.23043833434417</v>
       </c>
     </row>
     <row r="19">
@@ -6813,55 +6810,64 @@
         <v>37</v>
       </c>
       <c r="C22" t="s" s="566">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="566">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="566">
+      <c r="F22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="E22" t="s" s="566">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s" s="566">
+      <c r="G22" t="s" s="566">
         <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="562">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="567">
-        <v>0.6451612903225806</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="C23" t="n" s="568">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="D23" t="n" s="569">
         <v>0.06451612903225806</v>
       </c>
-      <c r="D23" t="n" s="569">
-        <v>0.12903225806451613</v>
-      </c>
       <c r="E23" t="n" s="570">
-        <v>0.16129032258064516</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="F23" t="n" s="571">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="G23" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="562">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="567">
-        <v>0.6451612903225806</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="C24" t="n" s="568">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="D24" t="n" s="569">
         <v>0.0967741935483871</v>
       </c>
       <c r="E24" t="n" s="570">
-        <v>0.1935483870967742</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="F24" t="n" s="571">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6891,7 +6897,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="573">
+      <c r="A1" t="s" s="574">
         <v>48</v>
       </c>
     </row>
@@ -6906,66 +6912,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="587">
+      <c r="A4" t="s" s="588">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="601">
+      <c r="A5" t="s" s="602">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="601">
+      <c r="B5" t="s" s="602">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="601">
+      <c r="C5" t="s" s="602">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="601">
+      <c r="D5" t="s" s="602">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="601">
+      <c r="E5" t="s" s="602">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="601">
+      <c r="F5" t="s" s="602">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="601">
+      <c r="G5" t="s" s="602">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="601">
+      <c r="H5" t="s" s="602">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="601">
+      <c r="I5" t="s" s="602">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="602">
-        <v>0.6441199077632589</v>
-      </c>
-      <c r="B6" t="n" s="603">
-        <v>0.6532320993173462</v>
-      </c>
-      <c r="C6" t="n" s="604">
-        <v>0.4850368790243913</v>
-      </c>
-      <c r="D6" t="n" s="605">
-        <v>0.4850368790243915</v>
-      </c>
-      <c r="E6" t="n" s="606">
-        <v>1.8837732616870853</v>
-      </c>
-      <c r="F6" t="n" s="607">
-        <v>0.12442843682710794</v>
-      </c>
-      <c r="G6" t="n" s="608">
-        <v>2.532258064516129</v>
-      </c>
-      <c r="H6" t="n" s="609">
-        <v>1.18276148533117</v>
-      </c>
-      <c r="I6" t="n" s="610">
-        <v>0.48503687902439147</v>
+      <c r="A6" t="n" s="603">
+        <v>0.809407153356198</v>
+      </c>
+      <c r="B6" t="n" s="604">
+        <v>0.8094438762190637</v>
+      </c>
+      <c r="C6" t="n" s="605">
+        <v>0.6798872056938008</v>
+      </c>
+      <c r="D6" t="n" s="606">
+        <v>0.6798872056938008</v>
+      </c>
+      <c r="E6" t="n" s="607">
+        <v>4.247797762456596</v>
+      </c>
+      <c r="F6" t="n" s="608">
+        <v>0.06845326990263585</v>
+      </c>
+      <c r="G6" t="n" s="609">
+        <v>2.725806451612903</v>
+      </c>
+      <c r="H6" t="n" s="610">
+        <v>1.0475265285218267</v>
+      </c>
+      <c r="I6" t="n" s="611">
+        <v>0.6798872056938009</v>
       </c>
     </row>
     <row r="7">
@@ -6979,81 +6985,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="614">
+      <c r="A9" t="s" s="615">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="628">
+      <c r="B10" t="s" s="629">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="628">
+      <c r="C10" t="s" s="629">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="628">
+      <c r="D10" t="s" s="629">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="628">
+      <c r="E10" t="s" s="629">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="628">
+      <c r="F10" t="s" s="629">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="628">
+      <c r="G10" t="s" s="629">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="628">
+      <c r="H10" t="s" s="629">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="628">
+      <c r="I10" t="s" s="629">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="624">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="629">
-        <v>0.48503687902439147</v>
-      </c>
-      <c r="C11" t="n" s="630">
-        <v>0.48503687902439147</v>
-      </c>
-      <c r="D11" t="n" s="631">
-        <v>0.2352607740137218</v>
-      </c>
-      <c r="E11" t="n" s="632">
-        <v>0.48503687902439147</v>
-      </c>
-      <c r="F11" s="633"/>
-      <c r="G11" s="634"/>
-      <c r="H11" t="n" s="635">
-        <v>0.48503687902439147</v>
-      </c>
-      <c r="I11" t="n" s="636">
-        <v>0.48503687902439147</v>
+      <c r="A11" t="s" s="625">
+        <v>28</v>
+      </c>
+      <c r="B11" t="n" s="630">
+        <v>0.6798872056938008</v>
+      </c>
+      <c r="C11" t="n" s="631">
+        <v>0.6798872056938008</v>
+      </c>
+      <c r="D11" t="n" s="632">
+        <v>0.46224661246612464</v>
+      </c>
+      <c r="E11" t="n" s="633">
+        <v>0.6798872056938008</v>
+      </c>
+      <c r="F11" s="634"/>
+      <c r="G11" s="635"/>
+      <c r="H11" t="n" s="636">
+        <v>0.6798872056938008</v>
+      </c>
+      <c r="I11" t="n" s="637">
+        <v>0.6798872056938008</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="624">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="629">
-        <v>0.2352607740137218</v>
-      </c>
-      <c r="C12" t="n" s="630">
-        <v>0.48503687902439147</v>
-      </c>
-      <c r="D12" s="631"/>
-      <c r="E12" s="632"/>
-      <c r="F12" s="633"/>
-      <c r="G12" s="634"/>
-      <c r="H12" t="n" s="635">
-        <v>0.2352607740137218</v>
-      </c>
-      <c r="I12" t="n" s="636">
-        <v>0.48503687902439147</v>
+      <c r="A12" t="s" s="625">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n" s="630">
+        <v>0.46224661246612464</v>
+      </c>
+      <c r="C12" t="n" s="631">
+        <v>0.6798872056938008</v>
+      </c>
+      <c r="D12" s="632"/>
+      <c r="E12" s="633"/>
+      <c r="F12" s="634"/>
+      <c r="G12" s="635"/>
+      <c r="H12" t="n" s="636">
+        <v>0.46224661246612464</v>
+      </c>
+      <c r="I12" t="n" s="637">
+        <v>0.6798872056938008</v>
       </c>
     </row>
     <row r="13">
@@ -7067,84 +7073,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="640">
+      <c r="A15" t="s" s="641">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="654">
+      <c r="B16" t="s" s="655">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="654">
+      <c r="C16" t="s" s="655">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="654">
+      <c r="D16" t="s" s="655">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="654">
+      <c r="E16" t="s" s="655">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="654">
+      <c r="F16" t="s" s="655">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="654">
+      <c r="G16" t="s" s="655">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="654">
+      <c r="H16" t="s" s="655">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="650">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="655">
+      <c r="A17" t="s" s="651">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n" s="656">
         <v>31.0</v>
       </c>
-      <c r="C17" t="n" s="656">
-        <v>0.8905567407933679</v>
-      </c>
-      <c r="D17" t="n" s="657">
-        <v>0.8616950966044751</v>
-      </c>
-      <c r="E17" t="n" s="658">
-        <v>0.6001240092839618</v>
-      </c>
-      <c r="F17" t="n" s="659">
-        <v>0.4850368790243913</v>
-      </c>
-      <c r="G17" t="n" s="660">
-        <v>2.2903225806451615</v>
-      </c>
-      <c r="H17" t="n" s="661">
-        <v>1.5098244575026325</v>
+      <c r="C17" t="n" s="657">
+        <v>0.9154029713916509</v>
+      </c>
+      <c r="D17" t="n" s="658">
+        <v>0.9164843713053162</v>
+      </c>
+      <c r="E17" t="n" s="659">
+        <v>0.7556896909975435</v>
+      </c>
+      <c r="F17" t="n" s="660">
+        <v>0.6798872056938011</v>
+      </c>
+      <c r="G17" t="n" s="661">
+        <v>2.903225806451613</v>
+      </c>
+      <c r="H17" t="n" s="662">
+        <v>1.1359236684941296</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="650">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="655">
+      <c r="A18" t="s" s="651">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n" s="656">
         <v>31.0</v>
       </c>
-      <c r="C18" t="n" s="656">
-        <v>0.8297357080985667</v>
-      </c>
-      <c r="D18" t="n" s="657">
-        <v>0.8616950966044751</v>
-      </c>
-      <c r="E18" t="n" s="658">
-        <v>0.6001240092839619</v>
-      </c>
-      <c r="F18" t="n" s="659">
-        <v>0.4850368790243914</v>
-      </c>
-      <c r="G18" t="n" s="660">
-        <v>2.774193548387097</v>
-      </c>
-      <c r="H18" t="n" s="661">
-        <v>1.23043833434417</v>
+      <c r="C18" t="n" s="657">
+        <v>0.9175591162095138</v>
+      </c>
+      <c r="D18" t="n" s="658">
+        <v>0.916484371305316</v>
+      </c>
+      <c r="E18" t="n" s="659">
+        <v>0.7556896909975435</v>
+      </c>
+      <c r="F18" t="n" s="660">
+        <v>0.6798872056938011</v>
+      </c>
+      <c r="G18" t="n" s="661">
+        <v>2.5483870967741935</v>
+      </c>
+      <c r="H18" t="n" s="662">
+        <v>1.1500350625790894</v>
       </c>
     </row>
     <row r="19">
@@ -7158,74 +7164,65 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="665">
+      <c r="A21" t="s" s="666">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="679">
+      <c r="B22" t="s" s="680">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="679">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="679">
+      <c r="C22" t="s" s="680">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="679">
+      <c r="D22" t="s" s="680">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="679">
+      <c r="E22" t="s" s="680">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="679">
+      <c r="F22" t="s" s="680">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="675">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="680">
+      <c r="A23" t="s" s="676">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n" s="681">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="C23" t="n" s="682">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="D23" t="n" s="683">
         <v>0.25806451612903225</v>
       </c>
-      <c r="C23" t="n" s="681">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="D23" t="n" s="682">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="E23" t="n" s="683">
-        <v>0.45161290322580644</v>
-      </c>
-      <c r="F23" t="n" s="684">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="G23" t="n" s="685">
+      <c r="E23" t="n" s="684">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="F23" t="n" s="685">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="675">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="680">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="C24" t="n" s="681">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="682">
+      <c r="A24" t="s" s="676">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n" s="681">
         <v>0.0967741935483871</v>
       </c>
-      <c r="E24" t="n" s="683">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="F24" t="n" s="684">
-        <v>0.25806451612903225</v>
-      </c>
-      <c r="G24" t="n" s="685">
+      <c r="C24" t="n" s="682">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="D24" t="n" s="683">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="E24" t="n" s="684">
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="F24" t="n" s="685">
         <v>0.0</v>
       </c>
     </row>
@@ -7305,31 +7302,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="716">
-        <v>0.721466801677998</v>
+        <v>0.6504398240703719</v>
       </c>
       <c r="B6" t="n" s="717">
-        <v>0.7558814616751176</v>
+        <v>0.6859801507480946</v>
       </c>
       <c r="C6" t="n" s="718">
-        <v>0.9225753239254619</v>
+        <v>0.8710899103295748</v>
       </c>
       <c r="D6" t="n" s="719">
-        <v>0.23642967080129978</v>
+        <v>0.19531581314518365</v>
       </c>
       <c r="E6" t="n" s="720">
-        <v>3.096370586445022</v>
+        <v>2.1845120694832394</v>
       </c>
       <c r="F6" t="n" s="721">
-        <v>0.07475386352146372</v>
+        <v>0.0896967973981665</v>
       </c>
       <c r="G6" t="n" s="722">
-        <v>3.0</v>
+        <v>2.4659498207885306</v>
       </c>
       <c r="H6" t="n" s="723">
-        <v>0.7711463328491336</v>
+        <v>0.7288410975969063</v>
       </c>
       <c r="I6" t="n" s="724">
-        <v>0.18521454148526542</v>
+        <v>0.09656540249853343</v>
       </c>
     </row>
     <row r="7">
@@ -7376,292 +7373,268 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="738">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="743">
-        <v>0.6775512853804206</v>
+        <v>0.6107162820410444</v>
       </c>
       <c r="C11" t="n" s="744">
-        <v>0.703618744647593</v>
+        <v>0.6232332983413752</v>
       </c>
       <c r="D11" t="n" s="745">
-        <v>0.8954883489897694</v>
+        <v>0.8316846653362018</v>
       </c>
       <c r="E11" t="n" s="746">
-        <v>0.20872390967508359</v>
+        <v>0.17134188369945086</v>
       </c>
       <c r="F11" t="n" s="747">
-        <v>2.374032540657699</v>
+        <v>1.6541623651924142</v>
       </c>
       <c r="G11" t="n" s="748">
-        <v>0.08677010599934065</v>
+        <v>0.10370799675157757</v>
       </c>
       <c r="H11" t="n" s="749">
-        <v>0.09334508752525873</v>
+        <v>0.08022492924595963</v>
       </c>
       <c r="I11" t="n" s="750">
-        <v>0.1574395334788973</v>
+        <v>0.09656540249853343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="738">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="743">
-        <v>0.6841984160958904</v>
+        <v>0.5255389112166606</v>
       </c>
       <c r="C12" t="n" s="744">
-        <v>0.713648990494219</v>
+        <v>0.6092070421239983</v>
       </c>
       <c r="D12" t="n" s="745">
-        <v>0.9010697059721006</v>
+        <v>0.8131213183639721</v>
       </c>
       <c r="E12" t="n" s="746">
-        <v>0.216861322204981</v>
+        <v>0.1630835960242894</v>
       </c>
       <c r="F12" t="n" s="747">
-        <v>2.4922174771652466</v>
+        <v>1.5588997443431398</v>
       </c>
       <c r="G12" t="n" s="748">
-        <v>0.08500824713515093</v>
+        <v>0.13187498416654453</v>
       </c>
       <c r="H12" t="n" s="749">
-        <v>0.09585964482936833</v>
+        <v>0.0811836095964563</v>
       </c>
       <c r="I12" t="n" s="750">
-        <v>0.17585609480561754</v>
+        <v>0.09096492962389437</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="738">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="743">
-        <v>0.6604940363242071</v>
+        <v>0.5504121449326927</v>
       </c>
       <c r="C13" t="n" s="744">
-        <v>0.6833894426673146</v>
+        <v>0.6192391442942203</v>
       </c>
       <c r="D13" t="n" s="745">
-        <v>0.879013745848055</v>
+        <v>0.8135595568701048</v>
       </c>
       <c r="E13" t="n" s="746">
-        <v>0.19343668061146632</v>
+        <v>0.16894517595262507</v>
       </c>
       <c r="F13" t="n" s="747">
-        <v>2.158454375067563</v>
+        <v>1.6263203924846643</v>
       </c>
       <c r="G13" t="n" s="748">
-        <v>0.09074541346830359</v>
+        <v>0.12335437246767562</v>
       </c>
       <c r="H13" t="n" s="749">
-        <v>0.09095089991946735</v>
+        <v>0.07716811392493526</v>
       </c>
       <c r="I13" t="n" s="750">
-        <v>0.1043657750265717</v>
+        <v>0.09656540249853343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="738">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="743">
-        <v>0.6758288037374781</v>
+        <v>0.6179752049027798</v>
       </c>
       <c r="C14" t="n" s="744">
-        <v>0.7072885972397481</v>
+        <v>0.6515530886266352</v>
       </c>
       <c r="D14" t="n" s="745">
-        <v>0.8859969837032805</v>
+        <v>0.8465888508722735</v>
       </c>
       <c r="E14" t="n" s="746">
-        <v>0.2116558802818046</v>
+        <v>0.1894529708425275</v>
       </c>
       <c r="F14" t="n" s="747">
-        <v>2.4163342820609555</v>
+        <v>1.8698776409255897</v>
       </c>
       <c r="G14" t="n" s="748">
-        <v>0.08684470772349571</v>
+        <v>0.09877503438621364</v>
       </c>
       <c r="H14" t="n" s="749">
-        <v>0.09007298897587625</v>
+        <v>0.11664733739460305</v>
       </c>
       <c r="I14" t="n" s="750">
-        <v>0.1667979801585452</v>
+        <v>0.09096492962389437</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="738">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="743">
-        <v>0.7140569787985867</v>
+        <v>0.6295465626523646</v>
       </c>
       <c r="C15" t="n" s="744">
-        <v>0.7452341487235427</v>
+        <v>0.6668671052744309</v>
       </c>
       <c r="D15" t="n" s="745">
-        <v>0.9114183978696219</v>
+        <v>0.8518422226244732</v>
       </c>
       <c r="E15" t="n" s="746">
-        <v>0.24529395751970734</v>
+        <v>0.200144376568731</v>
       </c>
       <c r="F15" t="n" s="747">
-        <v>2.9251728400399197</v>
+        <v>2.0018050328647017</v>
       </c>
       <c r="G15" t="n" s="748">
-        <v>0.07554607204143045</v>
+        <v>0.09617729490071368</v>
       </c>
       <c r="H15" t="n" s="749">
-        <v>0.11768297074217167</v>
+        <v>0.11751875165212897</v>
       </c>
       <c r="I15" t="n" s="750">
-        <v>0.20841062003759336</v>
+        <v>0.08404801748127322</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="738">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n" s="743">
-        <v>0.7118980714025795</v>
+        <v>0.697823071820539</v>
       </c>
       <c r="C16" t="n" s="744">
-        <v>0.7491970732812617</v>
+        <v>0.7258616941684334</v>
       </c>
       <c r="D16" t="n" s="745">
-        <v>0.905439554311279</v>
+        <v>0.8915514714398501</v>
       </c>
       <c r="E16" t="n" s="746">
-        <v>0.24919878878497354</v>
+        <v>0.24867064632102606</v>
       </c>
       <c r="F16" t="n" s="747">
-        <v>2.987194300652821</v>
+        <v>2.647793754931901</v>
       </c>
       <c r="G16" t="n" s="748">
-        <v>0.0764378742705028</v>
+        <v>0.07490504083301266</v>
       </c>
       <c r="H16" t="n" s="749">
-        <v>0.11734321825556798</v>
+        <v>0.1064766515824204</v>
       </c>
       <c r="I16" t="n" s="750">
-        <v>0.23953706196809627</v>
+        <v>0.15324651933376215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="738">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="743">
-        <v>0.6739187833342134</v>
+        <v>0.6492418864704051</v>
       </c>
       <c r="C17" t="n" s="744">
-        <v>0.7375248997944752</v>
+        <v>0.6872740437774019</v>
       </c>
       <c r="D17" t="n" s="745">
-        <v>0.8688796066965383</v>
+        <v>0.8692368044625323</v>
       </c>
       <c r="E17" t="n" s="746">
-        <v>0.23792654657140433</v>
+        <v>0.2155084472014834</v>
       </c>
       <c r="F17" t="n" s="747">
-        <v>2.809885201365667</v>
+        <v>2.1976878800818205</v>
       </c>
       <c r="G17" t="n" s="748">
-        <v>0.09109373211204115</v>
+        <v>0.08502559749867097</v>
       </c>
       <c r="H17" t="n" s="749">
-        <v>0.10522811374857337</v>
+        <v>0.1210705792223658</v>
       </c>
       <c r="I17" t="n" s="750">
-        <v>0.17585609480561754</v>
+        <v>0.1043657750265717</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="738">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="743">
-        <v>0.6844097530412989</v>
+        <v>0.642102657863011</v>
       </c>
       <c r="C18" t="n" s="744">
-        <v>0.7413183865975284</v>
+        <v>0.6748092569685614</v>
       </c>
       <c r="D18" t="n" s="745">
-        <v>0.8683662319790844</v>
+        <v>0.847686370862133</v>
       </c>
       <c r="E18" t="n" s="746">
-        <v>0.24151482658484383</v>
+        <v>0.20596465731506056</v>
       </c>
       <c r="F18" t="n" s="747">
-        <v>2.8657560034780776</v>
+        <v>2.075118284973207</v>
       </c>
       <c r="G18" t="n" s="748">
-        <v>0.08795634488877258</v>
+        <v>0.08825902026336671</v>
       </c>
       <c r="H18" t="n" s="749">
-        <v>0.1013570524766094</v>
+        <v>0.11920525998844529</v>
       </c>
       <c r="I18" t="n" s="750">
-        <v>0.17585609480561754</v>
+        <v>0.09285902056129855</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="738">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="743">
-        <v>0.7668626294644503</v>
+        <v>0.623587769796108</v>
       </c>
       <c r="C19" t="n" s="744">
-        <v>0.7946376636054823</v>
+        <v>0.6592337684815599</v>
       </c>
       <c r="D19" t="n" s="745">
-        <v>0.9398381841662238</v>
+        <v>0.8447234271339809</v>
       </c>
       <c r="E19" t="n" s="746">
-        <v>0.30066898374294715</v>
+        <v>0.1947305643814589</v>
       </c>
       <c r="F19" t="n" s="747">
-        <v>3.8694420678917423</v>
+        <v>1.9345630743517097</v>
       </c>
       <c r="G19" t="n" s="748">
-        <v>0.06302123156262357</v>
+        <v>0.0929770604739659</v>
       </c>
       <c r="H19" t="n" s="749">
-        <v>0.09444398494317996</v>
+        <v>0.12247327809912573</v>
       </c>
       <c r="I19" t="n" s="750">
-        <v>0.24367989693351394</v>
+        <v>0.10247168408916751</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="738">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="743">
-        <v>0.7234311740890689</v>
-      </c>
-      <c r="C20" t="n" s="744">
-        <v>0.7588041414115125</v>
-      </c>
-      <c r="D20" t="n" s="745">
-        <v>0.9262032924249991</v>
-      </c>
-      <c r="E20" t="n" s="746">
-        <v>0.2590158120357862</v>
-      </c>
-      <c r="F20" t="n" s="747">
-        <v>3.146008168847268</v>
-      </c>
-      <c r="G20" t="n" s="748">
-        <v>0.07244014036335818</v>
-      </c>
-      <c r="H20" t="n" s="749">
-        <v>0.1182447292222766</v>
-      </c>
-      <c r="I20" t="n" s="750">
-        <v>0.2340443803041377</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7670,359 +7643,380 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" t="s" s="754">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="754">
-        <v>30</v>
+      <c r="A23"/>
+      <c r="B23" t="s" s="768">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="768">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="768">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="768">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="768">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="768">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="768">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="768">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="768">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="768">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="768">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="768">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="768">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="768">
-        <v>10</v>
+      <c r="A24" t="s" s="764">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="769">
+        <v>31.0</v>
+      </c>
+      <c r="C24" t="n" s="770">
+        <v>0.7509084801031978</v>
+      </c>
+      <c r="D24" t="n" s="771">
+        <v>0.6733754097759337</v>
+      </c>
+      <c r="E24" t="n" s="772">
+        <v>0.7131394912623916</v>
+      </c>
+      <c r="F24" t="n" s="773">
+        <v>0.7157019490982867</v>
+      </c>
+      <c r="G24" t="n" s="774">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="H24" t="n" s="775">
+        <v>0.48637345711392005</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="764">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="769">
         <v>31.0</v>
       </c>
       <c r="C25" t="n" s="770">
-        <v>0.6747642248838448</v>
+        <v>0.8000669339470684</v>
       </c>
       <c r="D25" t="n" s="771">
-        <v>0.7376132407278498</v>
+        <v>0.7215250006043649</v>
       </c>
       <c r="E25" t="n" s="772">
-        <v>0.7425612664058941</v>
+        <v>0.7706730094338037</v>
       </c>
       <c r="F25" t="n" s="773">
-        <v>0.5900346185391622</v>
+        <v>0.6213907093768641</v>
       </c>
       <c r="G25" t="n" s="774">
-        <v>3.903225806451613</v>
+        <v>1.5161290322580645</v>
       </c>
       <c r="H25" t="n" s="775">
-        <v>1.0441851275732486</v>
+        <v>2.127141552129453</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="764">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="769">
         <v>31.0</v>
       </c>
       <c r="C26" t="n" s="770">
-        <v>0.6234384343327926</v>
+        <v>0.7663072905699222</v>
       </c>
       <c r="D26" t="n" s="771">
-        <v>0.6852333374162581</v>
+        <v>0.6873493111322747</v>
       </c>
       <c r="E26" t="n" s="772">
-        <v>0.6772654348573636</v>
+        <v>0.734257032737589</v>
       </c>
       <c r="F26" t="n" s="773">
-        <v>0.52569484398915</v>
+        <v>0.5606610495625234</v>
       </c>
       <c r="G26" t="n" s="774">
-        <v>4.354838709677419</v>
+        <v>1.5483870967741935</v>
       </c>
       <c r="H26" t="n" s="775">
-        <v>1.0816156771784882</v>
+        <v>2.1731499361896986</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="764">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n" s="769">
         <v>31.0</v>
       </c>
       <c r="C27" t="n" s="770">
-        <v>0.7734057488902847</v>
+        <v>0.5089524341839627</v>
       </c>
       <c r="D27" t="n" s="771">
-        <v>0.8360159673086203</v>
+        <v>0.5677794957440147</v>
       </c>
       <c r="E27" t="n" s="772">
-        <v>0.8568785475759327</v>
+        <v>0.5125595769998146</v>
       </c>
       <c r="F27" t="n" s="773">
-        <v>0.7056748320332842</v>
+        <v>0.3764413521133774</v>
       </c>
       <c r="G27" t="n" s="774">
-        <v>4.0</v>
+        <v>3.903225806451613</v>
       </c>
       <c r="H27" t="n" s="775">
-        <v>1.0954451150103321</v>
+        <v>1.0441851275732486</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="764">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="n" s="769">
         <v>31.0</v>
       </c>
       <c r="C28" t="n" s="770">
-        <v>0.6554267448825135</v>
+        <v>0.4504198485418759</v>
       </c>
       <c r="D28" t="n" s="771">
-        <v>0.718740369734985</v>
+        <v>0.5054437148477189</v>
       </c>
       <c r="E28" t="n" s="772">
-        <v>0.7303902628494446</v>
+        <v>0.44576392501153006</v>
       </c>
       <c r="F28" t="n" s="773">
-        <v>0.5398566974142051</v>
+        <v>0.30460849969218184</v>
       </c>
       <c r="G28" t="n" s="774">
-        <v>4.161290322580645</v>
+        <v>4.354838709677419</v>
       </c>
       <c r="H28" t="n" s="775">
-        <v>1.3190090773897498</v>
+        <v>1.0816156771784882</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="764">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="n" s="769">
         <v>31.0</v>
       </c>
       <c r="C29" t="n" s="770">
-        <v>0.41097608846681066</v>
+        <v>0.2297369736207603</v>
       </c>
       <c r="D29" t="n" s="771">
-        <v>0.5022146342096392</v>
+        <v>0.2225133877739033</v>
       </c>
       <c r="E29" t="n" s="772">
-        <v>0.44712805019290375</v>
+        <v>0.08844999942098027</v>
       </c>
       <c r="F29" t="n" s="773">
-        <v>0.27783957266749787</v>
+        <v>-4.4622052123372756E-4</v>
       </c>
       <c r="G29" t="n" s="774">
-        <v>2.903225806451613</v>
+        <v>2.2903225806451615</v>
       </c>
       <c r="H29" t="n" s="775">
-        <v>1.1359236684941296</v>
+        <v>1.5098244575026325</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="764">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="n" s="769">
         <v>31.0</v>
       </c>
       <c r="C30" t="n" s="770">
-        <v>0.4284850930991684</v>
+        <v>0.3731598795558347</v>
       </c>
       <c r="D30" t="n" s="771">
-        <v>0.4770795334179255</v>
+        <v>0.4158641623393736</v>
       </c>
       <c r="E30" t="n" s="772">
-        <v>0.4312290081492026</v>
+        <v>0.3363105332112125</v>
       </c>
       <c r="F30" t="n" s="773">
-        <v>0.2953768960695599</v>
+        <v>0.19614393069404185</v>
       </c>
       <c r="G30" t="n" s="774">
-        <v>2.5483870967741935</v>
+        <v>2.774193548387097</v>
       </c>
       <c r="H30" t="n" s="775">
-        <v>1.1500350625790894</v>
+        <v>1.23043833434417</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="764">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n" s="769">
         <v>31.0</v>
       </c>
       <c r="C31" t="n" s="770">
-        <v>0.7092036846215303</v>
+        <v>0.39179814341817093</v>
       </c>
       <c r="D31" t="n" s="771">
-        <v>0.5496380961161157</v>
+        <v>0.47150881847867393</v>
       </c>
       <c r="E31" t="n" s="772">
-        <v>0.5702995828218346</v>
+        <v>0.40731431149293273</v>
       </c>
       <c r="F31" t="n" s="773">
-        <v>0.5236712171444965</v>
+        <v>0.23118807617059445</v>
       </c>
       <c r="G31" t="n" s="774">
-        <v>1.5161290322580645</v>
+        <v>2.903225806451613</v>
       </c>
       <c r="H31" t="n" s="775">
-        <v>2.127141552129453</v>
+        <v>1.1359236684941296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="764">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n" s="769">
         <v>31.0</v>
       </c>
       <c r="C32" t="n" s="770">
-        <v>0.6862326087703094</v>
+        <v>0.48477167808037785</v>
       </c>
       <c r="D32" t="n" s="771">
-        <v>0.5265406115694832</v>
+        <v>0.5370087137788117</v>
       </c>
       <c r="E32" t="n" s="772">
-        <v>0.546322006210044</v>
+        <v>0.4736877237510272</v>
       </c>
       <c r="F32" t="n" s="773">
-        <v>0.48594010058002085</v>
+        <v>0.3335419607459142</v>
       </c>
       <c r="G32" t="n" s="774">
-        <v>1.5483870967741935</v>
+        <v>2.5483870967741935</v>
       </c>
       <c r="H32" t="n" s="775">
-        <v>2.1731499361896986</v>
+        <v>1.1500350625790894</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="764">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="769">
-        <v>31.0</v>
-      </c>
-      <c r="C33" t="n" s="770">
-        <v>0.14601103098500356</v>
-      </c>
-      <c r="D33" t="n" s="771">
-        <v>0.145769817286153</v>
-      </c>
-      <c r="E33" t="n" s="772">
-        <v>0.029056946370270093</v>
-      </c>
-      <c r="F33" t="n" s="773">
-        <v>-0.05025426623371307</v>
-      </c>
-      <c r="G33" t="n" s="774">
-        <v>2.2903225806451615</v>
-      </c>
-      <c r="H33" t="n" s="775">
-        <v>1.5098244575026325</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="764">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="769">
-        <v>31.0</v>
-      </c>
-      <c r="C34" t="n" s="770">
-        <v>0.35832925469415666</v>
-      </c>
-      <c r="D34" t="n" s="771">
-        <v>0.4138881041035142</v>
-      </c>
-      <c r="E34" t="n" s="772">
-        <v>0.34073351036985433</v>
-      </c>
-      <c r="F34" t="n" s="773">
-        <v>0.20824026188963246</v>
-      </c>
-      <c r="G34" t="n" s="774">
-        <v>2.774193548387097</v>
-      </c>
-      <c r="H34" t="n" s="775">
-        <v>1.23043833434417</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35" t="s" s="779">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36"/>
+      <c r="B36" t="s" s="793">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="793">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="793">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="793">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="793">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="793">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="793">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="779">
-        <v>36</v>
+      <c r="A37" t="s" s="789">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="794">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="C37" t="n" s="795">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="D37" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="800">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="793">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="793">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="793">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="793">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="793">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="793">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="793">
-        <v>43</v>
+      <c r="A38" t="s" s="789">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="794">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="C38" t="n" s="795">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="797">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="F38" t="n" s="798">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="G38" t="n" s="799">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="H38" t="n" s="800">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="789">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n" s="794">
-        <v>0.0</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C39" t="n" s="795">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="D39" t="n" s="796">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="797">
-        <v>0.2903225806451613</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="F39" t="n" s="798">
-        <v>0.2903225806451613</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="G39" t="n" s="799">
-        <v>0.3548387096774194</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="H39" t="n" s="800">
         <v>0.0</v>
@@ -8030,7 +8024,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="789">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n" s="794">
         <v>0.0</v>
@@ -8039,16 +8033,16 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="D40" t="n" s="796">
-        <v>0.0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E40" t="n" s="797">
-        <v>0.25806451612903225</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="F40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="G40" t="n" s="799">
-        <v>0.7096774193548387</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="H40" t="n" s="800">
         <v>0.0</v>
@@ -8056,25 +8050,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="789">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n" s="794">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="795">
         <v>0.03225806451612903</v>
       </c>
-      <c r="C41" t="n" s="795">
-        <v>0.0</v>
-      </c>
       <c r="D41" t="n" s="796">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n" s="797">
-        <v>0.16129032258064516</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="F41" t="n" s="798">
-        <v>0.41935483870967744</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n" s="799">
-        <v>0.3548387096774194</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="H41" t="n" s="800">
         <v>0.0</v>
@@ -8082,25 +8076,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="789">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n" s="794">
-        <v>0.03225806451612903</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="C42" t="n" s="795">
         <v>0.03225806451612903</v>
       </c>
       <c r="D42" t="n" s="796">
-        <v>0.0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E42" t="n" s="797">
-        <v>0.25806451612903225</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="F42" t="n" s="798">
-        <v>0.03225806451612903</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="G42" t="n" s="799">
-        <v>0.6451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="800">
         <v>0.0</v>
@@ -8108,22 +8102,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="789">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n" s="794">
-        <v>0.06451612903225806</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="C43" t="n" s="795">
         <v>0.0</v>
       </c>
       <c r="D43" t="n" s="796">
-        <v>0.2903225806451613</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="E43" t="n" s="797">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="F43" t="n" s="798">
         <v>0.25806451612903225</v>
-      </c>
-      <c r="F43" t="n" s="798">
-        <v>0.3870967741935484</v>
       </c>
       <c r="G43" t="n" s="799">
         <v>0.0</v>
@@ -8134,22 +8128,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="789">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n" s="794">
-        <v>0.0967741935483871</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C44" t="n" s="795">
         <v>0.0</v>
       </c>
       <c r="D44" t="n" s="796">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="E44" t="n" s="797">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="F44" t="n" s="798">
         <v>0.3870967741935484</v>
-      </c>
-      <c r="E44" t="n" s="797">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="F44" t="n" s="798">
-        <v>0.22580645161290322</v>
       </c>
       <c r="G44" t="n" s="799">
         <v>0.0</v>
@@ -8160,105 +8154,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="789">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n" s="794">
-        <v>0.6451612903225806</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="C45" t="n" s="795">
         <v>0.0</v>
       </c>
       <c r="D45" t="n" s="796">
-        <v>0.0</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="E45" t="n" s="797">
-        <v>0.06451612903225806</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="F45" t="n" s="798">
-        <v>0.12903225806451613</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="G45" t="n" s="799">
-        <v>0.16129032258064516</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="789">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="794">
-        <v>0.6451612903225806</v>
-      </c>
-      <c r="C46" t="n" s="795">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="797">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="F46" t="n" s="798">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="G46" t="n" s="799">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="H46" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="789">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="794">
-        <v>0.25806451612903225</v>
-      </c>
-      <c r="C47" t="n" s="795">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="D47" t="n" s="796">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="E47" t="n" s="797">
-        <v>0.45161290322580644</v>
-      </c>
-      <c r="F47" t="n" s="798">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="G47" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="789">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="794">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="C48" t="n" s="795">
-        <v>0.0</v>
-      </c>
-      <c r="D48" t="n" s="796">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="E48" t="n" s="797">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="F48" t="n" s="798">
-        <v>0.25806451612903225</v>
-      </c>
-      <c r="G48" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="800">
         <v>0.0</v>
       </c>
     </row>
